--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Freemium_Workspace\freemium\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soujanya\git\TechnavioLive\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCCC3DA-4522-472E-A4A6-6A8CAFB7D6E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FC3B91-7BC9-48E5-B863-54E5BC681522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>India</t>
   </si>
   <si>
-    <t>Offline</t>
-  </si>
-  <si>
     <t>TC001_POST_Request</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>Infi123</t>
+  </si>
+  <si>
+    <t>Online</t>
   </si>
 </sst>
 </file>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE44068-76DD-46D6-BA08-F84E1EA9C793}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +777,7 @@
         <v>35</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C43D8AC-31DA-4A63-A5A1-CD94CEB8B5A1}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,42 +812,42 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soujanya\git\TechnavioLive\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FC3B91-7BC9-48E5-B863-54E5BC681522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C84B05-C8E1-46E7-8667-519144B70E62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>Infi@123</t>
   </si>
   <si>
-    <t>migglp@gurumail.xyz</t>
-  </si>
-  <si>
     <t>cardHolderNumber</t>
   </si>
   <si>
@@ -170,13 +167,16 @@
   </si>
   <si>
     <t>Online</t>
+  </si>
+  <si>
+    <t>avzgd@gurumail.xyz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +197,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -273,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -294,6 +300,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,15 +629,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
+      <c r="C2" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -685,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE44068-76DD-46D6-BA08-F84E1EA9C793}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,54 +721,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="7">
         <v>123</v>
@@ -768,16 +777,16 @@
         <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="L2" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -812,42 +821,42 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -867,19 +876,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>9</v>
@@ -891,7 +900,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soujanya\git\TechnavioLive\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C84B05-C8E1-46E7-8667-519144B70E62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FE604B-8C1D-4236-B741-5E12DDFE43BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -166,10 +166,10 @@
     <t>Infi123</t>
   </si>
   <si>
-    <t>Online</t>
-  </si>
-  <si>
     <t>avzgd@gurumail.xyz</t>
+  </si>
+  <si>
+    <t>Team</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -637,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE44068-76DD-46D6-BA08-F84E1EA9C793}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,7 +786,7 @@
         <v>34</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Freemium_Workspace\freemium\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCCC3DA-4522-472E-A4A6-6A8CAFB7D6E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C866362-5B08-4496-AB0F-36AAF652F06F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Home" sheetId="2" r:id="rId2"/>
-    <sheet name="Payment" sheetId="3" r:id="rId3"/>
-    <sheet name="PostData" sheetId="5" r:id="rId4"/>
-    <sheet name="sheet12" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Home" sheetId="2" r:id="rId3"/>
+    <sheet name="Payment" sheetId="3" r:id="rId4"/>
+    <sheet name=" Province" sheetId="7" r:id="rId5"/>
+    <sheet name="PostData" sheetId="5" r:id="rId6"/>
+    <sheet name="Countries" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="320">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -73,103 +75,922 @@
     <t>Home_TestCase</t>
   </si>
   <si>
+    <t>cardHolderNumber</t>
+  </si>
+  <si>
+    <t>CardHolderName</t>
+  </si>
+  <si>
+    <t>CardHolderCvv</t>
+  </si>
+  <si>
+    <t>Payment_TestCase</t>
+  </si>
+  <si>
+    <t>CardCriteria</t>
+  </si>
+  <si>
+    <t>CvvCriteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000002500000003	</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>ramu</t>
+  </si>
+  <si>
+    <t>cardAddress</t>
+  </si>
+  <si>
+    <t>cardCity</t>
+  </si>
+  <si>
+    <t>mahathi street</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>addressBox1</t>
+  </si>
+  <si>
+    <t>addressBox2</t>
+  </si>
+  <si>
+    <t>PaymentMode</t>
+  </si>
+  <si>
+    <t>Tirupati</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>TC001_POST_Request</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>fnameq</t>
+  </si>
+  <si>
+    <t>userEmail</t>
+  </si>
+  <si>
+    <t>Qa team</t>
+  </si>
+  <si>
+    <t>koeveavzgpd@gurumail.xyz</t>
+  </si>
+  <si>
+    <t>Infi123</t>
+  </si>
+  <si>
+    <t>Infi@1352</t>
+  </si>
+  <si>
     <t>Infi@123</t>
   </si>
   <si>
-    <t>migglp@gurumail.xyz</t>
-  </si>
-  <si>
-    <t>cardHolderNumber</t>
-  </si>
-  <si>
-    <t>CardHolderName</t>
-  </si>
-  <si>
-    <t>CardHolderCvv</t>
-  </si>
-  <si>
-    <t>Payment_TestCase</t>
-  </si>
-  <si>
-    <t>CardCriteria</t>
-  </si>
-  <si>
-    <t>CvvCriteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000002500000003	</t>
-  </si>
-  <si>
-    <t>4242 4242 4242 4242</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t>ramu</t>
-  </si>
-  <si>
-    <t>martin</t>
-  </si>
-  <si>
-    <t>cardAddress</t>
-  </si>
-  <si>
-    <t>cardCity</t>
-  </si>
-  <si>
-    <t>mahathi street</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>addressBox1</t>
-  </si>
-  <si>
-    <t>addressBox2</t>
-  </si>
-  <si>
-    <t>PaymentMode</t>
-  </si>
-  <si>
-    <t>Tirupati</t>
-  </si>
-  <si>
-    <t>India</t>
+    <t>migg@gumail.xyz</t>
+  </si>
+  <si>
+    <t>fiutiu11@mailply.xy</t>
+  </si>
+  <si>
+    <t>--Select Country--</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote D'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France, Metropolitan</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard and Mc Donald Islands</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>FYROM</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Moldova, Republic of</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia &amp;amp; South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>St. Helena</t>
+  </si>
+  <si>
+    <t>St. Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen Islands</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania, United Republic of</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Vatican City State (Holy See)</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands (British)</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna Islands</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Democratic Republic of Congo</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Aaland Islands</t>
+  </si>
+  <si>
+    <t>Bonaire, Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Palestinian Territory, Occupied</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>St. Barthelemy</t>
+  </si>
+  <si>
+    <t>St. Martin (French part)</t>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+  </si>
+  <si>
+    <t>Ascension Island (British)</t>
+  </si>
+  <si>
+    <t>Kosovo, Republic of</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Tristan da Cunha</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Countries</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>--Select Province--</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>Manitoba</t>
+  </si>
+  <si>
+    <t>New Brunswick</t>
+  </si>
+  <si>
+    <t>Newfoundland and Labrador</t>
+  </si>
+  <si>
+    <t>Newfoundland Offshore</t>
+  </si>
+  <si>
+    <t>Northwest Territories</t>
+  </si>
+  <si>
+    <t>Nova Scotia</t>
+  </si>
+  <si>
+    <t>Nova Scotia Offshore</t>
+  </si>
+  <si>
+    <t>Nunavut</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Prince Edward Island</t>
+  </si>
+  <si>
+    <t>Québec</t>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+  </si>
+  <si>
+    <t>Yukon Territory</t>
   </si>
   <si>
     <t>Offline</t>
   </si>
   <si>
-    <t>TC001_POST_Request</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>password1</t>
-  </si>
-  <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>fnameq</t>
-  </si>
-  <si>
-    <t>userEmail</t>
-  </si>
-  <si>
-    <t>Qa team</t>
-  </si>
-  <si>
-    <t>koeveavzgpd@gurumail.xyz</t>
-  </si>
-  <si>
-    <t>Infi123</t>
+    <t>QADemo4@tahuisi.buzz</t>
+  </si>
+  <si>
+    <t>dphooi@maipoly.xyz</t>
   </si>
 </sst>
 </file>
@@ -273,7 +1094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -292,7 +1113,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -574,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,6 +1405,7 @@
     <col min="1" max="1" width="18.140625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -628,26 +1449,125 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>318</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6 F2:F6" xr:uid="{B220A27F-FF28-48E3-918A-06C74328A72E}">
+      <formula1>"valid,invalid"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B446137-ADBD-4C55-A143-9D2E4EE27773}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0165B78E-A19F-47B3-9379-D82A19FF8B35}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -681,12 +1601,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE44068-76DD-46D6-BA08-F84E1EA9C793}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,9 +1622,11 @@
     <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -712,54 +1634,60 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G2" s="7">
         <v>123</v>
@@ -768,16 +1696,143 @@
         <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{F4B65566-2472-41AC-B51F-54BA94C8D4E9}">
+      <formula1>"Online,Offline,Lite,Basic,Team"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A9F2D5A-B4FD-408A-A9B7-1559AF013856}">
+          <x14:formula1>
+            <xm:f>Countries!$D$5:$D$258</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B656E3B8-E726-4CFA-8A5F-5179E04D5693}">
+          <x14:formula1>
+            <xm:f>' Province'!$D$3:$D$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0C9603-5D0C-44F2-9446-11A28A51BC87}">
+  <dimension ref="D3:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -785,12 +1840,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C43D8AC-31DA-4A63-A5A1-CD94CEB8B5A1}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,42 +1867,42 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -855,43 +1910,1298 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF639976-DC21-4D0E-976C-5CE0BD1A389D}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="7">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>26</v>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D252" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D253" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D254" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D255" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D256" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D257" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
